--- a/medicine/Enfance/Jean-Michel_Dagory/Jean-Michel_Dagory.xlsx
+++ b/medicine/Enfance/Jean-Michel_Dagory/Jean-Michel_Dagory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Michel Dagory, né le 24 avril 1946, est un écrivain et un acteur français, auteur de roman noir et d'anticipation. Ses romans sont signés Dagory.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études à l'école des hautes études commerciales de Paris. Il travaille au lancement de plusieurs produits, puis devient saltimbanque et anime le Théâtre du Bilboquet pratiquant le mime et le théâtre de rue. Il travaille également pour le cinéma, la radio et le théâtre. Il met en scène Pinter and Co d'Harold Pinter et adapte en 1981, avec Jean-Pierre Bastid, le roman de Peter Cheyney La Môme vert-de-gris.
 En 1982, il publie son premier roman À la recherche du sang perdu. En 1986, il fait paraître un roman d'anticipation  Quand souvenirs revenir, nous souffrir et mourir. En 1989, Il écrit l'épisode Du son pour la souris pour la série télévisée Souris noire. En 1997, dans le cadre d'une animation consacrée au roman policier, il s'enferme à l'intérieur d'une bulle dans une station du métro parisien en faisant le pari d'écrire un récit en vingt-quatre heures. Ce sera Polar sous la ville.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-À la recherche du sang perdu, Sanguine no 11 (1982)  (ISBN 2-226-01585-X)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À la recherche du sang perdu, Sanguine no 11 (1982)  (ISBN 2-226-01585-X)
 Raid maure, Engrenage no 87 (1983)  (ISBN 2-265-02624-7)
 Les Aventures du Captain Élysée, Spécial Police no 1910 (1984)  (ISBN 2-265-02828-2)
 Quand souvenirs revenir, nous souffrir et mourir, Fleuve Noir Anticipation no 1425 (1986)  (ISBN 2-265-03168-2)
@@ -555,16 +574,118 @@
 Maison qui pleure, Actes Sud, Babel noir no 267 (1997)  (ISBN 2-7427-1266-6)
 La Muette, Éditions de la Voûte, Métro-police no 19 (1997)  (ISBN 2-911116-28-3)
 Polar sous la ville, Éditions de la Voûte, Métro-police no 27 (1997)  (ISBN 2-911116-37-2)
-Transe amazonienne, Hachette Livre, Le Polar du routard no 5 (2000)  (ISBN 2-01-243129-1)
-Littérature d'enfance et de jeunesse
-Pas pleurniche, Syros, Souris noire 1re série no 7 (1984)  (ISBN 2841460444)
+Transe amazonienne, Hachette Livre, Le Polar du routard no 5 (2000)  (ISBN 2-01-243129-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Dagory</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Dagory</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pas pleurniche, Syros, Souris noire 1re série no 7 (1984)  (ISBN 2841460444)
 Six assassins assassinés, Syros, Souris noire 2e série no 18 (1987)  (ISBN 2-86738-233-5)
 L'assassin est dans la classe, Syros, Souris noire 2e série no 27 (1988)  (ISBN 2-86738-318-8)
-Mon nom est pouding, Syros, Souris noire no 49 2e série (1991)  (ISBN 2-86738-668-3)
-Autre ouvrage
-La France par les petits bouts : un piéton sur la méridienne, Le Relié (2001)  (ISBN 2-909698-70-X)
-Nouvelles
-Dix petits nègres, revue de l’association 813 no 6 (septembre 1983)
+Mon nom est pouding, Syros, Souris noire no 49 2e série (1991)  (ISBN 2-86738-668-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Dagory</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Dagory</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La France par les petits bouts : un piéton sur la méridienne, Le Relié (2001)  (ISBN 2-909698-70-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Dagory</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Dagory</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dix petits nègres, revue de l’association 813 no 6 (septembre 1983)
 La plus belle vue de Paris, dans le recueil Place d'Italie, Pocket (1990), réédition dans le recueil La Crème du crime no 2 L'Atalante (1995)
 Le Cinglé tel qu’on le parle, dans le recueil Histoires de cinglés, Pocket (1990)
 Le Héros ce salaud, dans le recueil Noir de femme Série noire (1992)
@@ -573,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jean-Michel_Dagory</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Michel_Dagory</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1992 : Clowning Around (TV), Anatole Tolin
 1997 : Julie Lescaut (TV), épisode 5 saison 6, Mort d'un petit soldat de Charlotte Brandström : Pierrot
@@ -605,31 +728,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jean-Michel_Dagory</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Michel_Dagory</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251)</t>
         </is>
